--- a/REVER_DailyTracker_20200909.xlsx
+++ b/REVER_DailyTracker_20200909.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706FD63-9191-4445-8551-D6E1F952E945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED5414-2DC5-4BDB-8A29-C062CBBE259A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
   <si>
     <t>Task</t>
   </si>
@@ -548,6 +542,12 @@
   </si>
   <si>
     <t>2. R and D on IETAB in chrome is going on</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix  and New enhancement</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +578,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -656,10 +678,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,9 +726,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{947CCF41-2B25-46FB-9746-FA39FA1192FD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1018,22 +1051,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1087,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1064,8 +1097,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1088,10 +1121,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1105,9 +1138,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1121,9 +1154,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1137,8 +1170,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1155,19 +1188,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1185,13 +1218,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1235,12 +1268,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1281,12 +1314,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1308,12 +1341,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1345,12 +1378,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1382,12 +1415,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1427,12 +1460,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1472,12 +1505,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1533,12 +1566,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1554,12 +1587,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1567,22 +1600,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1614,12 +1647,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1635,7 +1668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1643,17 +1676,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1661,7 +1694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1669,17 +1702,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1687,12 +1720,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1700,27 +1733,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1728,12 +1761,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1741,7 +1774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1749,12 +1782,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1762,7 +1795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1770,12 +1803,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1783,7 +1816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1791,7 +1824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1799,17 +1832,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1817,12 +1850,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1863,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1838,12 +1871,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1851,17 +1884,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1869,7 +1902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1877,12 +1910,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1890,7 +1923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1898,7 +1931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1906,7 +1939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1914,12 +1947,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1927,12 +1960,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1940,12 +1973,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:7">
       <c r="D288" t="s">
         <v>108</v>
       </c>
@@ -1953,12 +1986,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:7">
       <c r="G289" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:7" ht="45">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1966,7 +1999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:7">
       <c r="D295" t="s">
         <v>107</v>
       </c>
@@ -1974,17 +2007,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:7">
       <c r="G296" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:7">
       <c r="G297" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:7">
       <c r="D300" t="s">
         <v>140</v>
       </c>
@@ -1992,7 +2025,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:7">
       <c r="D302" t="s">
         <v>108</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:7">
       <c r="D304" t="s">
         <v>108</v>
       </c>
@@ -2008,7 +2041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:7">
       <c r="D307" t="s">
         <v>108</v>
       </c>
@@ -2016,12 +2049,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:7">
       <c r="G308" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:7">
       <c r="D310" t="s">
         <v>108</v>
       </c>
@@ -2029,7 +2062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:7">
       <c r="D313" t="s">
         <v>108</v>
       </c>
@@ -2037,12 +2070,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:7">
       <c r="G314" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:7">
       <c r="D316" t="s">
         <v>149</v>
       </c>
@@ -2050,7 +2083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:7">
       <c r="D318" t="s">
         <v>151</v>
       </c>
@@ -2058,7 +2091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:7">
       <c r="G319" t="s">
         <v>153</v>
       </c>
@@ -2078,18 +2111,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2121,7 +2154,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2130,46 +2163,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2186,22 +2219,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2224,16 +2257,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>44083</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>155</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2242,46 +2283,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2302,18 +2343,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2345,7 +2386,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2354,46 +2395,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2414,18 +2455,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2457,7 +2498,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2466,46 +2507,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2526,18 +2567,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2581,7 +2622,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2590,46 +2631,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2650,18 +2691,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2693,7 +2734,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2702,46 +2743,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2762,18 +2803,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2805,7 +2846,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2814,46 +2855,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2874,18 +2915,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2917,7 +2958,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2926,46 +2967,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2986,18 +3027,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3020,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -3029,7 +3070,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3038,46 +3079,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200909.xlsx
+++ b/REVER_DailyTracker_20200909.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED5414-2DC5-4BDB-8A29-C062CBBE259A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE84CDD-08A0-44F2-A928-58FEDC0C84AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="158">
   <si>
     <t>Task</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>Testing Issues Fix  and New enhancement</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>Trying to resolve B2B issues from issue tracke</t>
   </si>
 </sst>
 </file>
@@ -1055,15 +1061,15 @@
       <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1098,7 +1104,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1130,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1162,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1415,12 +1421,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="60">
+    <row r="216" spans="4:7" ht="43.2">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="45">
+    <row r="292" spans="4:7" ht="43.2">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -2111,15 +2117,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2219,19 +2225,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2257,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2343,15 +2349,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2451,19 +2457,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2492,10 +2498,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -2567,15 +2581,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2691,15 +2705,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2803,15 +2817,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2915,15 +2929,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3027,15 +3041,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
